--- a/Analuusitud seletused/TõlgePWN_meetod.xlsx
+++ b/Analuusitud seletused/TõlgePWN_meetod.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\OneDrive\Töölaud\Bakatöö\Lõpptulemus\Protsent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e1e23a845f0f8/Töölaud/Seletuste-automaatne-genereerimine-ja-kontrollimine-Eesti-Wordneti-naitel/Analuusitud seletused/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B259705B-8863-454A-B0A1-37A8B2A64056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B259705B-8863-454A-B0A1-37A8B2A64056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81E9DA84-F229-429C-836E-692C08AF0694}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31560" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1711,7 +1711,51 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1745,50 +1789,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -2790,16 +2790,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2828,15 +2828,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B6E5E0B-9E10-490F-A16B-1DA4A657EF07}" name="Tabel1" displayName="Tabel1" ref="A1:F256" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B6E5E0B-9E10-490F-A16B-1DA4A657EF07}" name="Tabel1" displayName="Tabel1" ref="A1:F256" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
   <autoFilter ref="A1:F256" xr:uid="{5B6E5E0B-9E10-490F-A16B-1DA4A657EF07}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D5238E2F-519B-4188-B3A2-906AEC94BFD2}" name="ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{D5238E2F-519B-4188-B3A2-906AEC94BFD2}" name="ID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{241E8297-3AF3-406B-8FC9-CE6BAD3DEF55}" name="Sünohulk"/>
     <tableColumn id="3" xr3:uid="{591ACFE1-43F5-4492-BFDE-3F8EC83FC42D}" name="EKI seletus"/>
-    <tableColumn id="4" xr3:uid="{1C004F2D-D8EA-4C2D-A365-55FB2EEF6C53}" name="PWNst tõlgitud seletus" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1C004F2D-D8EA-4C2D-A365-55FB2EEF6C53}" name="PWNst tõlgitud seletus" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{DDA9B06B-E909-4F26-B4D6-2B05336165E5}" name="Meetod"/>
-    <tableColumn id="6" xr3:uid="{D2556167-1F2B-42FD-AB69-44F7DC787B37}" name="PWNst tõlgitud hinne" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{D2556167-1F2B-42FD-AB69-44F7DC787B37}" name="PWNst tõlgitud hinne" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3129,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,6 +3242,9 @@
       <c r="F5" s="4">
         <v>3</v>
       </c>
+      <c r="I5" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3262,6 +3265,10 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
+      <c r="I6" s="3">
+        <f>AVERAGE(F2:F256)</f>
+        <v>2.3254901960784315</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3521,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2585</v>
       </c>
@@ -3541,7 +3548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17761</v>
       </c>
@@ -3561,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12405</v>
       </c>
@@ -3581,7 +3588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -3601,7 +3608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1159</v>
       </c>
@@ -3621,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7590</v>
       </c>
@@ -3640,11 +3647,8 @@
       <c r="F22" s="4">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>278</v>
       </c>
@@ -3663,12 +3667,8 @@
       <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="J23" s="3">
-        <f>AVERAGE(F2:F256)</f>
-        <v>2.3254901960784315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>18674</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3254</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10886</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>11123</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6462</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2030</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8559</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8840</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6553</v>
       </c>
